--- a/Docs/GdP_RED.xlsx
+++ b/Docs/GdP_RED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2367ab8d30ac0582/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2367ab8d30ac0582/Desktop/Projet-red/Projet-Red_EarthRim/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{3A941076-5205-4237-ADD2-28E4ED33158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C299F8-4EB0-4CE1-B69A-AD0ED3C0A7B3}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{3A941076-5205-4237-ADD2-28E4ED33158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{118D60C1-DF6C-4368-AC6D-9860402E8195}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{D6C504DC-70C3-4139-99BE-4C6BBC477440}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>EarthRim</t>
+  </si>
+  <si>
+    <t>mission 3</t>
+  </si>
+  <si>
+    <t>mission 4</t>
   </si>
 </sst>
 </file>
@@ -913,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CFFF9C-EA01-4587-A7BA-633E67FCD999}">
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1352,27 +1358,33 @@
     <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.6">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4">
-        <v>25</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="16.5" x14ac:dyDescent="0.6">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4">
-        <v>26</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="D29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="16.5" x14ac:dyDescent="0.6">
@@ -1482,17 +1494,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d068e648-32f8-481f-a8f5-3ea019f54b7d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2c841d9-878d-400c-bac0-4e58b9c15a46">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1501,7 +1502,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096C6A415062AD84095B875A0E511DBA8" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="06b06fef34f923c070b690eb35097fdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2c841d9-878d-400c-bac0-4e58b9c15a46" xmlns:ns3="d068e648-32f8-481f-a8f5-3ea019f54b7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1a7f9f0ab6536e647325802491151ee" ns2:_="" ns3:_="">
     <xsd:import namespace="f2c841d9-878d-400c-bac0-4e58b9c15a46"/>
@@ -1736,18 +1737,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD66D29-06A9-4143-B590-090B341E9F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d068e648-32f8-481f-a8f5-3ea019f54b7d"/>
-    <ds:schemaRef ds:uri="f2c841d9-878d-400c-bac0-4e58b9c15a46"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d068e648-32f8-481f-a8f5-3ea019f54b7d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2c841d9-878d-400c-bac0-4e58b9c15a46">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20E735A-67AF-402C-BD43-BF0A7610D2D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1755,7 +1756,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CECA5D-0BA7-4A69-B01E-A46D8B17CF84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1772,4 +1773,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD66D29-06A9-4143-B590-090B341E9F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d068e648-32f8-481f-a8f5-3ea019f54b7d"/>
+    <ds:schemaRef ds:uri="f2c841d9-878d-400c-bac0-4e58b9c15a46"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>